--- a/data/SDG14.xlsx
+++ b/data/SDG14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bajk/Documents/GitHub/zhaw-sustainability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02639E21-333E-624B-AD1E-60079848B33B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CF0524-3364-D04A-8F86-1E6CFCF379E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21940" yWindow="-27980" windowWidth="27240" windowHeight="27580" activeTab="1" xr2:uid="{E38F36DA-1DC6-884E-BD96-A1D7EE904BAC}"/>
+    <workbookView xWindow="-10320" yWindow="-28020" windowWidth="27240" windowHeight="27580" activeTab="3" xr2:uid="{E38F36DA-1DC6-884E-BD96-A1D7EE904BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -4875,7 +4875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8202AE44-DF75-9C45-BCB3-9047D2C609BC}">
   <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A59" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
@@ -7334,6 +7334,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
@@ -9780,12 +9781,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0395483A-F603-BE4D-A779-50AE91D0A6D3}">
   <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
